--- a/LplcOpenDataConverter/LplcOpenDataConverter/mapdatas/allmap/pos/10.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/mapdatas/allmap/pos/10.xlsx
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="DI40" sqref="DI40"/>
+    <sheetView tabSelected="1" topLeftCell="BW4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DS15" sqref="DS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5670,45 +5670,19 @@
       <c r="DQ23" s="86">
         <v>1</v>
       </c>
-      <c r="DR23" s="7">
-        <v>1</v>
-      </c>
-      <c r="DS23" s="81">
-        <v>1</v>
-      </c>
-      <c r="DT23" s="62">
-        <v>1</v>
-      </c>
-      <c r="DU23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DV23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DW23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DX23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DY23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DZ23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EA23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EB23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EC23" s="63">
-        <v>1</v>
-      </c>
-      <c r="ED23" s="63">
-        <v>1</v>
-      </c>
+      <c r="DR23" s="7"/>
+      <c r="DS23" s="81"/>
+      <c r="DT23" s="62"/>
+      <c r="DU23" s="63"/>
+      <c r="DV23" s="63"/>
+      <c r="DW23" s="63"/>
+      <c r="DX23" s="63"/>
+      <c r="DY23" s="63"/>
+      <c r="DZ23" s="63"/>
+      <c r="EA23" s="63"/>
+      <c r="EB23" s="63"/>
+      <c r="EC23" s="63"/>
+      <c r="ED23" s="63"/>
       <c r="EE23" s="1"/>
       <c r="EF23" s="1"/>
       <c r="EG23" s="1"/>
@@ -5894,9 +5868,7 @@
       <c r="DF24" s="1"/>
       <c r="DG24" s="1"/>
       <c r="DH24" s="1"/>
-      <c r="DI24" s="63">
-        <v>1</v>
-      </c>
+      <c r="DI24" s="63"/>
       <c r="DJ24" s="1"/>
       <c r="DK24" s="1"/>
       <c r="DL24" s="1"/>
@@ -6103,9 +6075,7 @@
       <c r="DF25" s="1"/>
       <c r="DG25" s="1"/>
       <c r="DH25" s="1"/>
-      <c r="DI25" s="63">
-        <v>1</v>
-      </c>
+      <c r="DI25" s="63"/>
       <c r="DJ25" s="1"/>
       <c r="DK25" s="1"/>
       <c r="DL25" s="1"/>
@@ -6312,9 +6282,7 @@
       <c r="DF26" s="1"/>
       <c r="DG26" s="1"/>
       <c r="DH26" s="1"/>
-      <c r="DI26" s="63">
-        <v>1</v>
-      </c>
+      <c r="DI26" s="63"/>
       <c r="DJ26" s="1"/>
       <c r="DK26" s="1"/>
       <c r="DL26" s="1"/>
@@ -6521,9 +6489,7 @@
       <c r="DF27" s="1"/>
       <c r="DG27" s="1"/>
       <c r="DH27" s="1"/>
-      <c r="DI27" s="63">
-        <v>1</v>
-      </c>
+      <c r="DI27" s="63"/>
       <c r="DJ27" s="1"/>
       <c r="DK27" s="1"/>
       <c r="DL27" s="1"/>
@@ -6730,9 +6696,7 @@
       <c r="DF28" s="1"/>
       <c r="DG28" s="1"/>
       <c r="DH28" s="15"/>
-      <c r="DI28" s="65">
-        <v>1</v>
-      </c>
+      <c r="DI28" s="65"/>
       <c r="DJ28" s="15"/>
       <c r="DK28" s="15"/>
       <c r="DL28" s="1"/>
@@ -6939,9 +6903,7 @@
       <c r="DF29" s="1"/>
       <c r="DG29" s="13"/>
       <c r="DH29" s="17"/>
-      <c r="DI29" s="75">
-        <v>1</v>
-      </c>
+      <c r="DI29" s="75"/>
       <c r="DJ29" s="18"/>
       <c r="DK29" s="20"/>
       <c r="DL29" s="14"/>
@@ -7148,9 +7110,7 @@
       <c r="DF30" s="1"/>
       <c r="DG30" s="13"/>
       <c r="DH30" s="21"/>
-      <c r="DI30" s="66">
-        <v>1</v>
-      </c>
+      <c r="DI30" s="66"/>
       <c r="DJ30" s="6"/>
       <c r="DK30" s="22"/>
       <c r="DL30" s="14"/>
@@ -7357,9 +7317,7 @@
       <c r="DF31" s="8"/>
       <c r="DG31" s="29"/>
       <c r="DH31" s="32"/>
-      <c r="DI31" s="7">
-        <v>1</v>
-      </c>
+      <c r="DI31" s="7"/>
       <c r="DJ31" s="7"/>
       <c r="DK31" s="33"/>
       <c r="DL31" s="35"/>
